--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C2" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C3" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C4" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C5" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C6" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C7" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C8" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C9" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C10" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C11" t="n">
-        <v>3054.37</v>
+        <v>3068.32</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.93</v>
+        <v>3054.37</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="C13" t="n">
-        <v>3072.83</v>
+        <v>3050.93</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="C14" t="n">
-        <v>3056.07</v>
+        <v>3072.83</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="C15" t="n">
-        <v>3046.53</v>
+        <v>3056.07</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="C16" t="n">
-        <v>3038.97</v>
+        <v>3046.53</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="C17" t="n">
-        <v>3053.28</v>
+        <v>3038.97</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="C18" t="n">
-        <v>3052.37</v>
+        <v>3053.28</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="C19" t="n">
-        <v>3057.27</v>
+        <v>3052.37</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="C20" t="n">
-        <v>3058.41</v>
+        <v>3057.27</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="C21" t="n">
-        <v>3030.8</v>
+        <v>3058.41</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="C22" t="n">
-        <v>3009.41</v>
+        <v>3030.8</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="C23" t="n">
-        <v>3023.08</v>
+        <v>3009.41</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C2" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C3" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C4" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C5" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C6" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C7" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C8" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C9" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C10" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C11" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C12" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C13" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C14" t="n">
-        <v>3054.37</v>
+        <v>3068.32</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.93</v>
+        <v>3054.37</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="C16" t="n">
-        <v>3072.83</v>
+        <v>3050.93</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="C17" t="n">
-        <v>3056.07</v>
+        <v>3072.83</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="C18" t="n">
-        <v>3046.53</v>
+        <v>3056.07</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="C19" t="n">
-        <v>3038.97</v>
+        <v>3046.53</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="C20" t="n">
-        <v>3053.28</v>
+        <v>3038.97</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="C21" t="n">
-        <v>3052.37</v>
+        <v>3053.28</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="C22" t="n">
-        <v>3057.27</v>
+        <v>3052.37</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="C23" t="n">
-        <v>3058.41</v>
+        <v>3057.27</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C2" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C3" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C4" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C5" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C6" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C7" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C8" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C9" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C10" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C11" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C12" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C13" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C14" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C15" t="n">
-        <v>3054.37</v>
+        <v>3068.32</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="C16" t="n">
-        <v>3050.93</v>
+        <v>3054.37</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="C17" t="n">
-        <v>3072.83</v>
+        <v>3050.93</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="C18" t="n">
-        <v>3056.07</v>
+        <v>3072.83</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="C19" t="n">
-        <v>3046.53</v>
+        <v>3056.07</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="C20" t="n">
-        <v>3038.97</v>
+        <v>3046.53</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="C21" t="n">
-        <v>3053.28</v>
+        <v>3038.97</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="C22" t="n">
-        <v>3052.37</v>
+        <v>3053.28</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="C23" t="n">
-        <v>3057.27</v>
+        <v>3052.37</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C2" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C3" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C4" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C5" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C6" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C7" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C8" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C9" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C10" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C11" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C12" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C13" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C14" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C15" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C16" t="n">
-        <v>3054.37</v>
+        <v>3068.32</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="C17" t="n">
-        <v>3050.93</v>
+        <v>3054.37</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="C18" t="n">
-        <v>3072.83</v>
+        <v>3050.93</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="C19" t="n">
-        <v>3056.07</v>
+        <v>3072.83</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="C20" t="n">
-        <v>3046.53</v>
+        <v>3056.07</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="C21" t="n">
-        <v>3038.97</v>
+        <v>3046.53</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="C22" t="n">
-        <v>3053.28</v>
+        <v>3038.97</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="C23" t="n">
-        <v>3052.37</v>
+        <v>3053.28</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C2" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C3" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C4" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C5" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C6" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C7" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C8" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C9" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C10" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C11" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C12" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C13" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C14" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C15" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C16" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C17" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C18" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C19" t="n">
-        <v>3054.37</v>
+        <v>3068.32</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="C20" t="n">
-        <v>3050.93</v>
+        <v>3054.37</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="C21" t="n">
-        <v>3072.83</v>
+        <v>3050.93</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="C22" t="n">
-        <v>3056.07</v>
+        <v>3072.83</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="C23" t="n">
-        <v>3046.53</v>
+        <v>3056.07</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C2" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C3" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C4" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C5" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C6" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C7" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C8" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C9" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C10" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C11" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C12" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C13" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C14" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C15" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C16" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C17" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C18" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C19" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C20" t="n">
-        <v>3054.37</v>
+        <v>3068.32</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.93</v>
+        <v>3054.37</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="C22" t="n">
-        <v>3072.83</v>
+        <v>3050.93</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="C23" t="n">
-        <v>3056.07</v>
+        <v>3072.83</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="C2" t="n">
-        <v>2958.99</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C3" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C4" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C5" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C6" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C7" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C8" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C9" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C10" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C11" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C12" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C13" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C14" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C15" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C16" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C17" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C18" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C19" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C20" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="C21" t="n">
-        <v>3054.37</v>
+        <v>3068.32</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="C22" t="n">
-        <v>3050.93</v>
+        <v>3054.37</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="C23" t="n">
-        <v>3072.83</v>
+        <v>3050.93</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C2" t="n">
-        <v>2932.39</v>
+        <v>2902.11</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="C3" t="n">
-        <v>2930.8</v>
+        <v>2932.39</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="C4" t="n">
-        <v>2942.56</v>
+        <v>2930.8</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="C5" t="n">
-        <v>2958.99</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C6" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C7" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C8" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C9" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C10" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C11" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C12" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C13" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C14" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C15" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C16" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C17" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C18" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C19" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C20" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C21" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="C22" t="n">
-        <v>3067.93</v>
+        <v>3043.61</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="C23" t="n">
-        <v>3068.32</v>
+        <v>3067.93</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="C2" t="n">
-        <v>2918.71</v>
+        <v>2914.78</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="C3" t="n">
-        <v>2902.11</v>
+        <v>2918.71</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C4" t="n">
-        <v>2932.39</v>
+        <v>2902.11</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="C5" t="n">
-        <v>2930.8</v>
+        <v>2932.39</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="C6" t="n">
-        <v>2942.56</v>
+        <v>2930.8</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="C7" t="n">
-        <v>2958.99</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C8" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C9" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C10" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C11" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C12" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C13" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C14" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C15" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C16" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C17" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C18" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C19" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C20" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="C21" t="n">
-        <v>3040.97</v>
+        <v>3031.7</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C22" t="n">
-        <v>3061.86</v>
+        <v>3040.97</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C23" t="n">
-        <v>3043.61</v>
+        <v>3061.86</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="C2" t="n">
-        <v>2898.88</v>
+        <v>2914.61</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="C3" t="n">
-        <v>2918.81</v>
+        <v>2898.88</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="C4" t="n">
-        <v>2914.78</v>
+        <v>2918.81</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="C5" t="n">
-        <v>2918.71</v>
+        <v>2914.78</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="C6" t="n">
-        <v>2902.11</v>
+        <v>2918.71</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C7" t="n">
-        <v>2932.39</v>
+        <v>2902.11</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="C8" t="n">
-        <v>2930.8</v>
+        <v>2932.39</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="C9" t="n">
-        <v>2942.56</v>
+        <v>2930.8</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="C10" t="n">
-        <v>2958.99</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C11" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C12" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C13" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C14" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C15" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C16" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C17" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C18" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C19" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C20" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C21" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C22" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="C23" t="n">
-        <v>3031.7</v>
+        <v>3038.55</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="C2" t="n">
-        <v>2914.61</v>
+        <v>2954.7</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="C3" t="n">
-        <v>2898.88</v>
+        <v>2914.61</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="C4" t="n">
-        <v>2918.81</v>
+        <v>2898.88</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="C5" t="n">
-        <v>2914.78</v>
+        <v>2918.81</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="C6" t="n">
-        <v>2918.71</v>
+        <v>2914.78</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="C7" t="n">
-        <v>2902.11</v>
+        <v>2918.71</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C8" t="n">
-        <v>2932.39</v>
+        <v>2902.11</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="C9" t="n">
-        <v>2930.8</v>
+        <v>2932.39</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="C10" t="n">
-        <v>2942.56</v>
+        <v>2930.8</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="C11" t="n">
-        <v>2958.99</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C12" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C13" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C14" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C15" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C16" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C17" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C18" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C19" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C20" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C21" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C22" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="C23" t="n">
-        <v>3038.55</v>
+        <v>3021.69</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="C2" t="n">
-        <v>2954.7</v>
+        <v>2974.93</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="C3" t="n">
-        <v>2914.61</v>
+        <v>2954.7</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="C4" t="n">
-        <v>2898.88</v>
+        <v>2914.61</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="C5" t="n">
-        <v>2918.81</v>
+        <v>2898.88</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="C6" t="n">
-        <v>2914.78</v>
+        <v>2918.81</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="C7" t="n">
-        <v>2918.71</v>
+        <v>2914.78</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="C8" t="n">
-        <v>2902.11</v>
+        <v>2918.71</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C9" t="n">
-        <v>2932.39</v>
+        <v>2902.11</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="C10" t="n">
-        <v>2930.8</v>
+        <v>2932.39</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="C11" t="n">
-        <v>2942.56</v>
+        <v>2930.8</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="C12" t="n">
-        <v>2958.99</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C13" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C14" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C15" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C16" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="C17" t="n">
-        <v>2966.21</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C18" t="n">
-        <v>2968.93</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C19" t="n">
-        <v>2972.3</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="C20" t="n">
-        <v>3022.91</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="C21" t="n">
-        <v>3031.64</v>
+        <v>3022.91</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="C22" t="n">
-        <v>3029.67</v>
+        <v>3031.64</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C23" t="n">
-        <v>3021.69</v>
+        <v>3029.67</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="C2" t="n">
-        <v>2967.25</v>
+        <v>2929.18</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="C3" t="n">
-        <v>2962.28</v>
+        <v>2954.35</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45289</v>
+        <v>45294</v>
       </c>
       <c r="C4" t="n">
-        <v>2974.93</v>
+        <v>2967.25</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="C5" t="n">
-        <v>2954.7</v>
+        <v>2962.28</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45287</v>
+        <v>45289</v>
       </c>
       <c r="C6" t="n">
-        <v>2914.61</v>
+        <v>2974.93</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45286</v>
+        <v>45288</v>
       </c>
       <c r="C7" t="n">
-        <v>2898.88</v>
+        <v>2954.7</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45285</v>
+        <v>45287</v>
       </c>
       <c r="C8" t="n">
-        <v>2918.81</v>
+        <v>2914.61</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45282</v>
+        <v>45286</v>
       </c>
       <c r="C9" t="n">
-        <v>2914.78</v>
+        <v>2898.88</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45281</v>
+        <v>45285</v>
       </c>
       <c r="C10" t="n">
-        <v>2918.71</v>
+        <v>2918.81</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45280</v>
+        <v>45282</v>
       </c>
       <c r="C11" t="n">
-        <v>2902.11</v>
+        <v>2914.78</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="C12" t="n">
-        <v>2932.39</v>
+        <v>2918.71</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45278</v>
+        <v>45280</v>
       </c>
       <c r="C13" t="n">
-        <v>2930.8</v>
+        <v>2902.11</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45275</v>
+        <v>45279</v>
       </c>
       <c r="C14" t="n">
-        <v>2942.56</v>
+        <v>2932.39</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45274</v>
+        <v>45278</v>
       </c>
       <c r="C15" t="n">
-        <v>2958.99</v>
+        <v>2930.8</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="C16" t="n">
-        <v>2968.76</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="C17" t="n">
-        <v>3003.44</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="C18" t="n">
-        <v>2991.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45268</v>
+        <v>45272</v>
       </c>
       <c r="C19" t="n">
-        <v>2969.56</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="C20" t="n">
-        <v>2966.21</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C21" t="n">
-        <v>2968.93</v>
+        <v>2969.56</v>
       </c>
     </row>
     <row r="22">
@@ -674,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="C22" t="n">
-        <v>2972.3</v>
+        <v>2966.21</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45264</v>
+        <v>45266</v>
       </c>
       <c r="C23" t="n">
-        <v>3022.91</v>
+        <v>2968.93</v>
       </c>
     </row>
     <row r="24">

--- a/LME/parser_beta/data/investing_com/SSEK.xlsx
+++ b/LME/parser_beta/data/investing_com/SSEK.xlsx
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="C2" t="n">
-        <v>2929.18</v>
+        <v>2887.54</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="C3" t="n">
-        <v>2954.35</v>
+        <v>2929.18</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="C4" t="n">
-        <v>2967.25</v>
+        <v>2954.35</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="C5" t="n">
-        <v>2962.28</v>
+        <v>2967.25</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
       <c r="C6" t="n">
-        <v>2974.93</v>
+        <v>2962.28</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="C7" t="n">
-        <v>2954.7</v>
+        <v>2974.93</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="C8" t="n">
-        <v>2914.61</v>
+        <v>2954.7</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="C9" t="n">
-        <v>2898.88</v>
+        <v>2914.61</v>
       </c>
     </row>
     <row r="10">
@@ -542,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="C10" t="n">
-        <v>2918.81</v>
+        <v>2898.88</v>
       </c>
     </row>
     <row r="11">
@@ -553,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="C11" t="n">
-        <v>2914.78</v>
+        <v>2918.81</v>
       </c>
     </row>
     <row r="12">
@@ -564,10 +564,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="C12" t="n">
-        <v>2918.71</v>
+        <v>2914.78</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="C13" t="n">
-        <v>2902.11</v>
+        <v>2918.71</v>
       </c>
     </row>
     <row r="14">
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C14" t="n">
-        <v>2932.39</v>
+        <v>2902.11</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="C15" t="n">
-        <v>2930.8</v>
+        <v>2932.39</v>
       </c>
     </row>
     <row r="16">
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="C16" t="n">
-        <v>2942.56</v>
+        <v>2930.8</v>
       </c>
     </row>
     <row r="17">
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="C17" t="n">
-        <v>2958.99</v>
+        <v>2942.56</v>
       </c>
     </row>
     <row r="18">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="C18" t="n">
-        <v>2968.76</v>
+        <v>2958.99</v>
       </c>
     </row>
     <row r="19">
@@ -641,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="C19" t="n">
-        <v>3003.44</v>
+        <v>2968.76</v>
       </c>
     </row>
     <row r="20">
@@ -652,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C20" t="n">
-        <v>2991.44</v>
+        <v>3003.44</v>
       </c>
     </row>
     <row r="21">
@@ -663,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="C21" t="n">
-        <v>2969.56</v>
+        <v>2991.44</v>
       </c>
     </row>
     <row r="22">
